--- a/test.xlsx
+++ b/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,2006 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>19000₽</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ул. Конева, 40</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/9</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Площадь: 36.0м²</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ по счетчикам от 1 года и более мебель холодильник ТВ балкон </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-koneva-40-id3445244/</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8000₽</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ул. Стрельникова, 4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Площадь: 31.0м²</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ по счетчикам от 1 года и более мебель холодильник балкон </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-strelnikova-4-id3445891/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>15000₽</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ул. Авиагородок, 7А</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2-к</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Площадь: 44.0м²</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ по счетчикам от 1 года и более мебель холодильник балкон </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/2-komnatnaya-kvartira-ul-aviagorodok-7a-id3446364/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>19000₽</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ул. Ленина, 8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2-к</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Площадь: 54.0м²</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ (1 000 ₽) + оплата эл. энергии на короткий срок мебель холодильник кухня: 9.0 м² балкон </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/2-komnatnaya-kvartira-ul-lenina-8-id3446564/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>65000₽</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ул. Масленникова, 58</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2-к</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3/17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Площадь: 75.0м²</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ (1 ₽) + оплата эл. энергии коммисия - 0 ₽, от 1 года и более мебель холодильник ТВ жилая: 50.0 м² кухня: 20.0 м² балкон </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/2-komnatnaya-kvartira-ul-maslennikova-58-id3405344/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>10000₽</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ул. Романенко, 2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Площадь: 30.0м²</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ (2 500 ₽) + оплата эл. энергии от 1 года и более хрущевка мебель холодильник ТВ жилая: 17.0 м² кухня: 6.0 м² балкон </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-romanenko-2-id3434345/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>28000₽</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ул. Красный Путь, 103 к3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4/15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Площадь: 40.0м²</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ по счетчикам от 1 года и более мебель холодильник ТВ балкон </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-id3446951/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>23000₽</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ул. Госпитальная, 19а</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15/16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Площадь: 49.0м²</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ (3 000 ₽) + оплата эл. энергии от 1 года и более элитный новостройка мебель холодильник жилая: 18.0 м² кухня: 18.0 м² изол.комн балкон </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-gospitalnaya-19a-id3420310/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>35000₽</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ул. 3-я Северная, 123 к1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4/9</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Площадь: 42.0м²</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">вкл. эл. эн. коммисия - 0 ₽, любой срок элитный новостройка мебель холодильник жилая: 25.0 м² кухня: 10.0 м² балкон </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-3-ya-severnaya-123-k1-id3445752/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>24000₽</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ул. Волгоградская, 32</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2-к</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2/9</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Площадь: 54.0м²</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">вкл. эл. эн. от 1 года и более мебель холодильник ТВ стир. маш. изол.комн балкон </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/2-komnatnaya-kvartira-volgogradskaya-32-id3446694/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12000₽</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ул. СибНИИСХоз, 4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2-к</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3/6</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Площадь: 49.0м²</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ (4 500 ₽) + оплата эл. энергии от 1 года и более без мебели холодильник жилая: 32.0 м² кухня: 6.0 м² б</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/2-komnatnaya-kvartira-id3446958/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>31000₽</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ул. Красный Путь, 101 к4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2-к</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2/15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Площадь: 53.0м²</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ по счетчикам от 1 года и более мебель холодильник ТВ балкон </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/2-komnatnaya-kvartira-ul-krasnyy-put-101-k4-id3446950/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>12000₽</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>пр-кт. Космический, 47</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Площадь: 36.0м²</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ (3 000 ₽) + оплата эл. энергии на короткий срок мебель холодильник ТВ </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-pr-kt-kosmicheskiy-47-id3446946/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>16000₽</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ул. Пригородная, 23 к1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7/9</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Площадь: 39.0м²</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ (3 000 ₽) + оплата эл. энергии на короткий срок мебель ТВ кухня: 6.0 м² </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-prigorodnaya-23-k1-id3446842/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>28000₽</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ул. Пригородная, 5 к1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2-к</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>7/10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Площадь: 64.0м²</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ (6 000 ₽) + оплата эл. энергии коммисия - 0 ₽, на короткий срок мебель холодильник ТВ балкон </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/2-komnatnaya-kvartira-ul-prigorodnaya-5-k1-id3441597/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7000₽</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>пр-кт. Космический, 22</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>к</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Площадь: 65.0м²</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ по счетчикам от 1 года и более мебель холодильник ТВ жилая: 65.0 м² без балк./лодж. </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/komnata-pr-kt-kosmicheskiy-22-id3422565/</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>65000₽</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>с. Красноярка, ул. Луговая 3-я</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>дом</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Площадь: 67.5м²</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ по счетчикам коммисия - 0 ₽, от 1 года и более мебель холодильник ТВ </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/dom-ul-lugovaya-3-ya-id3444579/</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>80000₽</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>с. Красноярка, ул. Луговая 4-я, 7</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>дом</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Площадь: 75.0м²</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ по счетчикам коммисия - 0 ₽, от 1 года и более мебель холодильник ТВ </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/dom-ul-lugovaya-4-ya-7-id3436139/</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5000₽</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ул. Мостоотряд, 63А</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Площадь: 31.1м²</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ (3 000 ₽) + оплата эл. энергии на короткий срок без мебели жилая: 15.5 м² кухня: 6.9 м² без балк./лодж. </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-mostootryad-63a-id3446888/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>8000₽</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ул. Волгоградская, 42</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7/10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Площадь: 40.0м²</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ + оплата эл. энергии улучшенный мебель холодильник балкон </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-volgogradskaya-42-id3446854/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>8000₽</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ул. 12 Декабря, 1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>4/10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Площадь: 35.0м²</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ (2 000 ₽) + оплата эл. энергии от 1 года и более омская серия новостройка без мебели жилая: 35.0 м² изол.комн </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-12-dekabrya-1-id3241203/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>8000₽</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ул. Волгоградская, 42</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>7/10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Площадь: 40.0м²</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ (3 000 ₽) + оплата эл. энергии мебель холодильник ТВ балкон </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-volgogradskaya-42-id3446595/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>9000₽</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ул. 70 лет Октября, 14/1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>6/9</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Площадь: 42.0м²</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ (3 000 ₽) + оплата эл. энергии ленинградская серия мебель холодильник ТВ жилая: 28.0 м² кухня: 6.0 м² изол.комн без балк./лодж. </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-70-let-oktyabrya-14-1-id3190285/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>9000₽</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ул. 3-я Любинская, 23</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>9/10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Площадь: 38.0м²</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ по счетчикам от 1 года и более без мебели жилая: 15.0 м² кухня: 11.0 м² балкон </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-3-ya-lyubinskaya-23-id3444423/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>10000₽</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ул. Мостоотряд, 63</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Площадь: 18.3м²</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ по счетчикам от 1 года и более без мебели без балк./лодж. </t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-mostootryad-63-id3444743/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>10000₽</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ул. Мельничная, 124</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Площадь: 36.0м²</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ + оплата эл. энергии мебель холодильник ТВ стир. маш. кухня: 8.0 м² изол.комн балкон </t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-melnichnaya-124-id3444933/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>10000₽</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ул. Дианова, 20 к1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>5/10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Площадь: 40.0м²</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ + оплата эл. энергии улучшенный мебель ТВ балкон </t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-dianova-20-k1-id3446904/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>10000₽</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ул. Авиагородок, 8</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Площадь: 40.0м²</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ по счетчикам любой срок меб/кухня холодильник стир. маш. балкон </t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-aviagorodok-8-id3446241/</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>10000₽</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ул. Леонида Маслова, 11</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2/10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Площадь: 40.0м²</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ + оплата эл. энергии улучшенный новостройка меб/часть жилая: 25.0 м² студия </t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-leonida-maslova-11-id3403058/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>10000₽</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ул. Ялтинская, 49Б</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Площадь: 33.0м²</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ по счетчикам от 1 года и более без мебели балкон </t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-yaltinskaya-49b-id3446051/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>10000₽</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ул. Туполева, 5</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Площадь: 50.0м²</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ + оплата эл. энергии улучшенный мебель холодильник стир. маш. кухня: 15.0 м² балкон </t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-tupoleva-5-id3446275/</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>10000₽</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ул. Авиагородок, 8</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Площадь: 41.0м²</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ по счетчикам от 1 года и более без мебели балкон </t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-aviagorodok-8-id3446400/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>10000₽</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Не указана</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Площадь: 31.0м²</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ по счетчикам от 1 года и более без мебели без балк./лодж. </t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-id3446871/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>10000₽</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ул. Мостоотряд, 63</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Площадь: 30.0м²</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">вкл. эл. эн. мебель холодильник ТВ стир. маш. изол.комн </t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-mostootryad-63-id3437233/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>10000₽</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ул. Крупской, 8</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>8/9</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Площадь: 42.0м²</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ (3 500 ₽) + оплата эл. энергии от 1 года и более мебель холодильник жилая: 19.0 м² кухня: 7.0 м² балкон </t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-krupskoy-8-id3446256/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>10000₽</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ул. Ялтинская, 49Б</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Площадь: 34.0м²</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ (3 000 ₽) + оплата эл. энергии от 1 года и более мебель холодильник ТВ жилая: 18.0 м² кухня: 6.0 м² балкон </t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-yaltinskaya-49b-id3446369/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>11000₽</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ул. 4-я Любинская, 42А</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Площадь: 34.0м²</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ по счетчикам от 1 года и более мебель холодильник жилая: 19.3 м² кухня: 7.6 м² балкон </t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-4-ya-lyubinskaya-42a-id3446001/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>11000₽</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ул. Верхнеднепровская, 267 к1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Площадь: 34.0м²</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ + оплата эл. энергии улучшенный мебель холодильник ТВ балкон </t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-verhnedneprovskaya-267-k1-id3446905/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>11000₽</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ул. 3-я Енисейская, 32 к1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>8/14</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Площадь: 40.0м²</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ + оплата эл. энергии полнометражный мебель холодильник ТВ жилая: 19.0 м² кухня: 10.0 м² изол.комн балкон </t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-3-ya-eniseyskaya-32-k1-id3446594/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>11000₽</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ул. Туполева, 8</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>8/12</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Площадь: 40.0м²</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ (3 500 ₽) + оплата эл. энергии меб/кухня балкон </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-tupoleva-8-id3445710/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>11000₽</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ул. Лисицкого, 3В</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Площадь: 31.0м²</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ по счетчикам от 1 года и более без мебели балкон </t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-lisitskogo-3v-id3446747/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>11000₽</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ул. Перелета, 33</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>9/10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Площадь: 33.0м²</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ (3 500 ₽) + оплата эл. энергии мебель холодильник ТВ стир. маш. студия балкон </t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-pereleta-33-id3444991/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>11000₽</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ул. Крупской, 27 к2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>5/10</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Площадь: 42.0м²</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ (4 000 ₽) + оплата эл. энергии от 1 года и более улучшенный мебель холодильник ТВ жилая: 18.0 м² кухня: 9.0 м² изол.комн балкон </t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-krupskoy-27-k2-id3446837/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>12000₽</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ул. Мельничная, 87 к3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2/10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Площадь: 30.0м²</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ по счетчикам от 1 года и более мебель холодильник жилая: 16.0 м² кухня: 8.0 м² без балк./лодж. </t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-melnichnaya-87-k3-id3446588/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>12000₽</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>б-р. Архитекторов, 1В</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>6/16</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Площадь: 37.2м²</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ оплата эл. энергии коммисия - 0 ₽, любой срок индивидуальный проект новостройка меб/часть холодильник жилая: 17.0 м² кухня: 12.0 м² балкон </t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-b-r-arhitektorov-1v-id3345911/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>12000₽</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ул. Волгоградская, 42</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>7/10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Площадь: 38.0м²</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ по счетчикам улучшенный мебель холодильник ТВ балкон </t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-volgogradskaya-42-id3446733/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>12000₽</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ул. Рокоссовского, 20</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1/12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Площадь: 39.0м²</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ по счетчикам ленинградская серия меб/часть стир. маш. жилая: 19.0 м² кухня: 9.0 м² без балк./лодж. </t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-rokossovskogo-20-id3444831/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>12000₽</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ул. 3-я Енисейская, 32 к1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>8/14</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Площадь: 38.0м²</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ (4 000 ₽) + оплата эл. энергии улучшенный меб/часть стир. маш. без животных балкон </t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-3-ya-eniseyskaya-32-k1-id3446280/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>12000₽</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ул. Хлебная, 17</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Площадь: 30.0м²</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ + оплата эл. энергии мебель холодильник ТВ стир. маш. </t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-hlebnaya-17-id3445744/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>12000₽</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ул. Дмитриева, 11</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1-к</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1/9</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Площадь: 38.0м²</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+ КУ (3 500 ₽) + оплата эл. энергии от 1 года и более мебель холодильник ТВ жилая: 19.0 м² кухня: 7.0 м² без балк./лодж. </t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://omsk.mlsn.ru/arenda-nedvizhimost/1-komnatnaya-kvartira-ul-dmitrieva-11-id3446619/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
